--- a/biology/Mycologie/Émile_Boudier/Émile_Boudier.xlsx
+++ b/biology/Mycologie/Émile_Boudier/Émile_Boudier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Boudier</t>
+          <t>Émile_Boudier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Émile Boudier est un pharmacien et un mycologue français, né le 6 janvier 1828 à Garnay (Eure-et-Loir) et mort le 4 février 1920 à Blois (Loir-et-Cher), à l'âge de 93 ans.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Boudier</t>
+          <t>Émile_Boudier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il embrasse en 1852 la carrière de son père, pharmacien d'officine et naturaliste, excellent mycologue et entomologiste, qui lui communique sa passion pour la science de la nature[1].
-Reçu au diplôme de pharmacien de première classe le 4 mai 1852, Émile Boudier fonde la pharmacie de l'établissement thermal d'Enghien-les-Bains en 1853. Puis il reprend l'officine paternelle où il exerce pendant vingt-cinq ans, jusqu'en 1878, date à laquelle il se retire pour se consacrer à ses recherches scientifiques favorites jusqu'à sa mort. Il dirige pendant près de trente ans des herborisations mycologiques hebdomadaires dans les forêts de la région Île-de-France, suivi par de nombreux mycologues de France et de l'étranger[1].
-D'abord passionné pour l'entomologie pour laquelle il excelle et réunit une importante collection, sa seconde passion se révèle au cours des herborisations avec le célèbre mycologue Joseph-Henri Léveillé[Note 1](1796-1870), qu'il a la chance d'avoir pour voisin à Montmorency. En 1854, il contribue à la création de la Société botanique de France, qu'il préside en 1901. Il correspond de façon soutenue avec Pierre-Eudoxe Dubalen, fondateur de la Société mycologique des Landes[2].
-En 1864, il est élu correspondant de l'Académie de médecine qui lui décerne le prix Orfila pour son mémoire Les Champignons au point de vue de leurs caractères usuels, chimiques et toxicologiques, publié deux ans plus tard avant d'être traduit en allemand[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il embrasse en 1852 la carrière de son père, pharmacien d'officine et naturaliste, excellent mycologue et entomologiste, qui lui communique sa passion pour la science de la nature.
+Reçu au diplôme de pharmacien de première classe le 4 mai 1852, Émile Boudier fonde la pharmacie de l'établissement thermal d'Enghien-les-Bains en 1853. Puis il reprend l'officine paternelle où il exerce pendant vingt-cinq ans, jusqu'en 1878, date à laquelle il se retire pour se consacrer à ses recherches scientifiques favorites jusqu'à sa mort. Il dirige pendant près de trente ans des herborisations mycologiques hebdomadaires dans les forêts de la région Île-de-France, suivi par de nombreux mycologues de France et de l'étranger.
+D'abord passionné pour l'entomologie pour laquelle il excelle et réunit une importante collection, sa seconde passion se révèle au cours des herborisations avec le célèbre mycologue Joseph-Henri Léveillé[Note 1](1796-1870), qu'il a la chance d'avoir pour voisin à Montmorency. En 1854, il contribue à la création de la Société botanique de France, qu'il préside en 1901. Il correspond de façon soutenue avec Pierre-Eudoxe Dubalen, fondateur de la Société mycologique des Landes.
+En 1864, il est élu correspondant de l'Académie de médecine qui lui décerne le prix Orfila pour son mémoire Les Champignons au point de vue de leurs caractères usuels, chimiques et toxicologiques, publié deux ans plus tard avant d'être traduit en allemand.
 En 1870, le pillage de sa collection d'insectes rares par les Allemands l'incite à se consacrer exclusivement aux champignons.
 Il publie une monographie sur les Ascobolées (1868). Puis il s'attèle à la rénovation de la systématique des Discomycètes, après avoir découvert l'importance de la déhiscence des asques (ou thèques), qui le conduit à diviser la sous-classe des Discomycètes en operculés et inoperculés. Il réunit ses observations en 1885 dans son Essai sur la classification des Discomycètes charnus, ouvrage couronné par le prix Desmazières, décerné par l'Académie des sciences en 1887.
-En 1884, il est avec Lucien Quélet (1832-1899) et Antoine Mougeot (1815-1889), l'un des fondateurs de la Société mycologique de France, qu'il présidera de 1887 à 1890, avant d'être élu président honoraire, puis président d'honneur en février 1903. En 1905, il devient membre honoraire de la British Mycological Society puis correspondant de l'Académie des sciences en 1908[1].
+En 1884, il est avec Lucien Quélet (1832-1899) et Antoine Mougeot (1815-1889), l'un des fondateurs de la Société mycologique de France, qu'il présidera de 1887 à 1890, avant d'être élu président honoraire, puis président d'honneur en février 1903. En 1905, il devient membre honoraire de la British Mycological Society puis correspondant de l'Académie des sciences en 1908.
 Vient ensuite son œuvre la plus importante avec Les Discomycètes d'Europe (1907) et Histoire et classification des Discomycètes d'Europe (1909).
 À côté de ces travaux déterminants sur la classification et plus de quatre-vingt-dix publications de systématique, ses talents d'aquarelliste vont asseoir sa réputation à l'échelle mondiale, avec la parution de son magnifique atlas de plus de 600 planches, Icones mycologicae (6 volumes, 1904-1910).
 La faculté de pharmacie de Paris lui dédie un de ses amphithéâtres, mais le gouvernement ne reconnaîtra ses mérites qu'en 1910 en le nommant, à 82 ans, chevalier de l'ordre national de la Légion d'honneur.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Boudier</t>
+          <t>Émile_Boudier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,19 +566,21 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(1869). Mémoire sur les Ascobolées. Annales des Sciences Naturelles, Botanique, sér. 5 10: 191-268.
 (1877). De quelques espèces nouvelle de champignons. Bull. Soc. Bot. France 24: 307-314.
 (1879). Diagnoses nouvelles de quelques espèces critiques de champignons. Bull. Soc. Bot. France 26: 228-236.
-(1881). Nouvelles espèces de champignons de France. Bull. Soc. Bot. France 28: 91-[93], tab.
-(1885). Note sur un nouveau genre et quelques nouvelles espèces des Pyrenomycètes. Revue Mycologique Toulouse 7: 224-[226], tab.
+(1881). Nouvelles espèces de champignons de France. Bull. Soc. Bot. France 28: 91-, tab.
+(1885). Note sur un nouveau genre et quelques nouvelles espèces des Pyrenomycètes. Revue Mycologique Toulouse 7: 224-, tab.
 (1885). Nouvelle classification naturelle des Discomycètes charnus. Bull. Soc. Mycol. France 1: 91-120.
-(1885). Description de quelques espèces nouvelles de champignons basidiosporés. Bull. Soc. Bot. France 32: 282-[283].
+(1885). Description de quelques espèces nouvelles de champignons basidiosporés. Bull. Soc. Bot. France 32: 282-.
 (1887). Notice sur les discomycètes figurés dans les dessins inédits de Dunal. Bull. Soc. Mycol. France 3: 88-96.
 (1888). Nouvelles espèces de Discomycètes inoperculès de France. Bull. Soc. Mycol. France 4: 76-86, 1 pl..
 (1891). Quelques nouvelles espèces de champignons inférieurs. Bull. Soc. Mycol. France 7: 81-83, tab.
-(1891). Trois nouvelles espèces de Pezizes. Bull. Soc. Mycol. France 7: [215].
+(1891). Trois nouvelles espèces de Pezizes. Bull. Soc. Mycol. France 7: .
 avec Patouillard, N.T. (1892). Description de deux nouvelles espèces de Gymnoascus de France. Bull. Soc. Mycol. France 8: 43-45, 1 pl..
 (1896). Description de quelques nouvelles espèces de Discomycètes de France. Bull. Soc. Mycol. France 12: 11-17, pls. 3-4.
 (1897). Nouvelles espèces ou variétés de champignons de France. Bull. Soc. Mycol. France 13 (1): 9-18, pls 1-4.
@@ -594,7 +610,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Boudier</t>
+          <t>Émile_Boudier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,7 +628,9 @@
           <t>Liste des taxons de Boudier en mycologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En plus des genres Boudiera et Boudierella, et des 86 espèces et sous-espèces boudieri que lui ont dédiées les mycologues, Boudier a décrit (sous son seul nom) les taxons suivants :
 Genres :
